--- a/Asien_Australien_Julia.xlsx
+++ b/Asien_Australien_Julia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HTBLALeonding\2AHIF\WMC\WorldTour\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00_HTBLALeonding\2AHIF\WMC\WorldTour\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B44EB8-8661-463B-9215-DAC3B9AFAFBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B68E2F-E134-47B4-AA21-26D7BEC4EAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7650" yWindow="0" windowWidth="21045" windowHeight="15135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7260" yWindow="555" windowWidth="22170" windowHeight="15135" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Asien" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="316">
   <si>
     <t>Country</t>
   </si>
@@ -776,6 +776,213 @@
   </si>
   <si>
     <t>https://www.iexplore.com/articles/travel-guides/middle-east/united-arab-emirates/attractions</t>
+  </si>
+  <si>
+    <t>https://www.worldatlas.com/articles/important-aspects-of-the-culture-of-afghanistan.html</t>
+  </si>
+  <si>
+    <t>https://www.worldatlas.com/articles/the-armenian-people-cultures-of-the-world.html</t>
+  </si>
+  <si>
+    <t>https://www.worldatlas.com/articles/the-culture-of-azerbaijan.html</t>
+  </si>
+  <si>
+    <t>https://www.worldatlas.com/articles/important-aspects-of-the-culture-of-bahrain.html</t>
+  </si>
+  <si>
+    <t>https://www.worldatlas.com/articles/important-aspects-of-the-culture-of-bangladesh.html</t>
+  </si>
+  <si>
+    <t>https://www.worldatlas.com/articles/important-aspects-of-the-culture-of-bhutan.html</t>
+  </si>
+  <si>
+    <t>https://www.worldatlas.com/articles/important-aspects-of-the-culture-of-brunei.html</t>
+  </si>
+  <si>
+    <t>https://www.worldatlas.com/articles/chinese-culture-and-traditions.html</t>
+  </si>
+  <si>
+    <t>https://www.worldatlas.com/articles/the-culture-of-georgia.html</t>
+  </si>
+  <si>
+    <t>https://www.worldatlas.com/articles/the-indian-people-cultures-of-the-world.html</t>
+  </si>
+  <si>
+    <t>https://www.worldatlas.com/maps/indonesia</t>
+  </si>
+  <si>
+    <t>https://www.worldatlas.com/articles/the-culture-of-iraq.html</t>
+  </si>
+  <si>
+    <t>https://www.worldatlas.com/articles/the-culture-of-iran.html</t>
+  </si>
+  <si>
+    <t>https://www.worldatlas.com/articles/the-culture-customs-and-traditions-of-israel.html</t>
+  </si>
+  <si>
+    <t>https://www.worldatlas.com/articles/the-culture-of-japan.html</t>
+  </si>
+  <si>
+    <t>https://www.worldatlas.com/articles/the-culture-of-yemen.html</t>
+  </si>
+  <si>
+    <t>https://www.worldatlas.com/articles/the-culture-of-jordan.html</t>
+  </si>
+  <si>
+    <t>https://www.worldatlas.com/articles/the-culture-of-cambodia.html</t>
+  </si>
+  <si>
+    <t>https://www.worldatlas.com/articles/the-culture-customs-and-traditions-of-kazakhstan.html</t>
+  </si>
+  <si>
+    <t>https://www.worldatlas.com/articles/the-culture-of-qatar.html</t>
+  </si>
+  <si>
+    <t>https://www.worldatlas.com/articles/the-culture-of-kyrgyzstan.html</t>
+  </si>
+  <si>
+    <t>https://www.worldatlas.com/articles/the-culture-of-kuwait.html</t>
+  </si>
+  <si>
+    <t>https://www.worldatlas.com/articles/culture-in-laos.html</t>
+  </si>
+  <si>
+    <t>https://www.worldatlas.com/articles/the-culture-of-lebanon.html</t>
+  </si>
+  <si>
+    <t>https://www.worldatlas.com/articles/the-culture-of-malaysia.html</t>
+  </si>
+  <si>
+    <t>https://www.worldatlas.com/articles/the-culture-of-maldives.html</t>
+  </si>
+  <si>
+    <t>https://www.worldatlas.com/articles/the-culture-of-mongolia.html</t>
+  </si>
+  <si>
+    <t>https://www.worldatlas.com/articles/the-culture-of-myanmar.html</t>
+  </si>
+  <si>
+    <t>https://www.worldatlas.com/articles/the-culture-of-nepal.html</t>
+  </si>
+  <si>
+    <t>https://www.worldatlas.com/articles/the-culture-of-north-korea.html</t>
+  </si>
+  <si>
+    <t>https://www.worldatlas.com/articles/the-culture-of-oman.html</t>
+  </si>
+  <si>
+    <t>https://www.worldatlas.com/articles/the-culture-of-east-timor.html</t>
+  </si>
+  <si>
+    <t>https://www.worldatlas.com/articles/pakistani-culture-customs-and-traditions.html</t>
+  </si>
+  <si>
+    <t>https://www.worldatlas.com/articles/the-culture-of-the-philippines.html</t>
+  </si>
+  <si>
+    <t>https://www.worldatlas.com/articles/the-culture-of-saudi-arabia.html</t>
+  </si>
+  <si>
+    <t>https://www.worldatlas.com/articles/what-is-the-culture-of-singapore.html</t>
+  </si>
+  <si>
+    <t>https://www.worldatlas.com/articles/the-culture-of-sri-lanka.html</t>
+  </si>
+  <si>
+    <t>https://www.worldatlas.com/articles/the-culture-of-south-korea.html</t>
+  </si>
+  <si>
+    <t>https://www.worldatlas.com/articles/the-culture-of-syria.html</t>
+  </si>
+  <si>
+    <t>https://www.worldatlas.com/articles/the-unique-culture-of-tajikistan.html</t>
+  </si>
+  <si>
+    <t>https://www.worldatlas.com/articles/the-culture-and-traditions-of-taiwan.html</t>
+  </si>
+  <si>
+    <t>https://www.worldatlas.com/articles/thailand-customs-beliefs-and-culture.html</t>
+  </si>
+  <si>
+    <t>https://www.worldatlas.com/articles/the-culture-of-turkmenistan.html</t>
+  </si>
+  <si>
+    <t>https://www.worldatlas.com/articles/the-culture-of-uzbekistan.html</t>
+  </si>
+  <si>
+    <t>https://www.worldatlas.com/articles/culture-traditions-and-customs-of-the-united-arab-emirates.html</t>
+  </si>
+  <si>
+    <t>https://www.worldatlas.com/articles/the-culture-of-vietnam.html</t>
+  </si>
+  <si>
+    <t>https://www.196flavors.com/bhutan-ema-datshi/</t>
+  </si>
+  <si>
+    <t>https://jamiegeller.com/recipes/israeli-meatballs-simmered-in-tehina/</t>
+  </si>
+  <si>
+    <t>https://www.munatycooking.com/yemeni-chicken-mandi/</t>
+  </si>
+  <si>
+    <t>https://www.theinternationalkitchen.com/blog/recipe-for-khmer-fish-amok/#:~:text=%20Instructions%3A%20%201%20Cut%20the%20fish%20into,5%20Add%20the%20kale%20and%20egg.%20More%20</t>
+  </si>
+  <si>
+    <t>https://dohafamily.com/healthy_living/a-taste-of-qatar-chicken-machboos-recipe/</t>
+  </si>
+  <si>
+    <t>https://uzbekcooking.blogspot.com/2009/12/chuchvara.html</t>
+  </si>
+  <si>
+    <t>https://www.vacationtopanama.com/travel-guide/recipes/</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.de/Attractions-g294139-Activities-Solomon_Islands.html</t>
+  </si>
+  <si>
+    <t>https://www.arborteas.com/burmese-tea-leaf-salad-or-lahpet-thoke-recipe/</t>
+  </si>
+  <si>
+    <t>Türkei</t>
+  </si>
+  <si>
+    <t>Russland</t>
+  </si>
+  <si>
+    <t>Moskau</t>
+  </si>
+  <si>
+    <t>Ankara</t>
+  </si>
+  <si>
+    <t>https://www.thespruceeats.com/korean-cold-noodles-2118781#:~:text=%20Ingredients%20%201%202%20cups%20cold%20chicken,slices%2010%201%2F4%20cup%20pickled%20radish%20More%20</t>
+  </si>
+  <si>
+    <t>https://www.internationalcuisine.com/al-kabsa/</t>
+  </si>
+  <si>
+    <t>https://foodperestroika.com/2013/10/15/qurutob-tajikistans-national-dish/</t>
+  </si>
+  <si>
+    <t>https://momsdish.com/recipe/735/shurpa-soup-recipe</t>
+  </si>
+  <si>
+    <t>https://www.196flavors.com/category/continent/asia/western-asia/turkey/</t>
+  </si>
+  <si>
+    <t>https://www.196flavors.com/category/continent/europe/eastern-europe/russia/</t>
+  </si>
+  <si>
+    <t>https://www.worldatlas.com/articles/the-turkish-people-cultures-around-the-world.html</t>
+  </si>
+  <si>
+    <t>https://www.worldatlas.com/articles/russian-culture-customs-and-traditions.html</t>
+  </si>
+  <si>
+    <t>https://www.iexplore.com/articles/travel-guides%2Feurope%2Frussia%2Fattractions#:~:text=%20Russia%20%E2%80%94%20Attractions%20%201%20St%20Basil%E2%80%99s,monumental%20palace%E2%80%93museum%20with%20massive%20Baroque%20frontage...%20More%20</t>
+  </si>
+  <si>
+    <t>https://www.iexplore.com/articles/travel-guides/middle-east/turkey/attractions</t>
   </si>
 </sst>
 </file>
@@ -859,7 +1066,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -877,6 +1084,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1195,19 +1403,19 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A19" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
     <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="3" width="38.5703125" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" customWidth="1"/>
     <col min="4" max="4" width="35.28515625" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" customWidth="1"/>
+    <col min="5" max="5" width="56.5703125" customWidth="1"/>
     <col min="6" max="7" width="20.85546875" customWidth="1"/>
     <col min="8" max="8" width="19.7109375" customWidth="1"/>
   </cols>
@@ -1272,7 +1480,9 @@
       <c r="C4" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="D4" s="9"/>
+      <c r="D4" s="9" t="s">
+        <v>247</v>
+      </c>
       <c r="E4" s="9" t="s">
         <v>201</v>
       </c>
@@ -1297,7 +1507,9 @@
       <c r="C5" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="D5" s="9"/>
+      <c r="D5" s="9" t="s">
+        <v>248</v>
+      </c>
       <c r="E5" s="9" t="s">
         <v>202</v>
       </c>
@@ -1322,6 +1534,9 @@
       <c r="C6" s="9" t="s">
         <v>171</v>
       </c>
+      <c r="D6" s="9" t="s">
+        <v>249</v>
+      </c>
       <c r="E6" s="9" t="s">
         <v>203</v>
       </c>
@@ -1346,6 +1561,9 @@
       <c r="C7" s="9" t="s">
         <v>179</v>
       </c>
+      <c r="D7" s="9" t="s">
+        <v>250</v>
+      </c>
       <c r="E7" s="9" t="s">
         <v>204</v>
       </c>
@@ -1370,6 +1588,9 @@
       <c r="C8" s="9" t="s">
         <v>175</v>
       </c>
+      <c r="D8" s="9" t="s">
+        <v>251</v>
+      </c>
       <c r="E8" s="9" t="s">
         <v>205</v>
       </c>
@@ -1391,6 +1612,12 @@
       <c r="B9" t="s">
         <v>90</v>
       </c>
+      <c r="C9" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>252</v>
+      </c>
       <c r="E9" s="9" t="s">
         <v>206</v>
       </c>
@@ -1415,6 +1642,9 @@
       <c r="C10" s="9" t="s">
         <v>174</v>
       </c>
+      <c r="D10" s="9" t="s">
+        <v>253</v>
+      </c>
       <c r="E10" s="9" t="s">
         <v>207</v>
       </c>
@@ -1439,6 +1669,9 @@
       <c r="C11" s="9" t="s">
         <v>181</v>
       </c>
+      <c r="D11" s="9" t="s">
+        <v>254</v>
+      </c>
       <c r="E11" s="9" t="s">
         <v>208</v>
       </c>
@@ -1463,6 +1696,9 @@
       <c r="C12" s="9" t="s">
         <v>182</v>
       </c>
+      <c r="D12" s="9" t="s">
+        <v>255</v>
+      </c>
       <c r="E12" s="9" t="s">
         <v>209</v>
       </c>
@@ -1487,6 +1723,9 @@
       <c r="C13" s="9" t="s">
         <v>177</v>
       </c>
+      <c r="D13" s="9" t="s">
+        <v>256</v>
+      </c>
       <c r="E13" s="9" t="s">
         <v>210</v>
       </c>
@@ -1511,6 +1750,9 @@
       <c r="C14" s="9" t="s">
         <v>173</v>
       </c>
+      <c r="D14" s="9" t="s">
+        <v>257</v>
+      </c>
       <c r="E14" s="9" t="s">
         <v>211</v>
       </c>
@@ -1535,6 +1777,9 @@
       <c r="C15" s="9" t="s">
         <v>180</v>
       </c>
+      <c r="D15" s="9" t="s">
+        <v>258</v>
+      </c>
       <c r="E15" s="9" t="s">
         <v>212</v>
       </c>
@@ -1559,6 +1804,9 @@
       <c r="C16" s="9" t="s">
         <v>187</v>
       </c>
+      <c r="D16" s="9" t="s">
+        <v>259</v>
+      </c>
       <c r="E16" s="9" t="s">
         <v>213</v>
       </c>
@@ -1580,6 +1828,12 @@
       <c r="B17" t="s">
         <v>98</v>
       </c>
+      <c r="C17" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>260</v>
+      </c>
       <c r="E17" s="9" t="s">
         <v>214</v>
       </c>
@@ -1604,6 +1858,9 @@
       <c r="C18" s="9" t="s">
         <v>185</v>
       </c>
+      <c r="D18" s="9" t="s">
+        <v>261</v>
+      </c>
       <c r="E18" s="9" t="s">
         <v>215</v>
       </c>
@@ -1625,6 +1882,12 @@
       <c r="B19" t="s">
         <v>100</v>
       </c>
+      <c r="C19" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>262</v>
+      </c>
       <c r="E19" s="9" t="s">
         <v>216</v>
       </c>
@@ -1649,6 +1912,9 @@
       <c r="C20" s="9" t="s">
         <v>178</v>
       </c>
+      <c r="D20" s="9" t="s">
+        <v>263</v>
+      </c>
       <c r="E20" s="9" t="s">
         <v>217</v>
       </c>
@@ -1670,6 +1936,12 @@
       <c r="B21" t="s">
         <v>102</v>
       </c>
+      <c r="C21" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>264</v>
+      </c>
       <c r="E21" s="9" t="s">
         <v>218</v>
       </c>
@@ -1694,6 +1966,9 @@
       <c r="C22" s="9" t="s">
         <v>199</v>
       </c>
+      <c r="D22" s="9" t="s">
+        <v>265</v>
+      </c>
       <c r="E22" s="9" t="s">
         <v>219</v>
       </c>
@@ -1715,6 +1990,12 @@
       <c r="B23" t="s">
         <v>104</v>
       </c>
+      <c r="C23" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>266</v>
+      </c>
       <c r="E23" s="9" t="s">
         <v>220</v>
       </c>
@@ -1736,6 +2017,12 @@
       <c r="B24" t="s">
         <v>105</v>
       </c>
+      <c r="C24" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>267</v>
+      </c>
       <c r="E24" s="9" t="s">
         <v>221</v>
       </c>
@@ -1760,6 +2047,9 @@
       <c r="C25" s="9" t="s">
         <v>197</v>
       </c>
+      <c r="D25" s="9" t="s">
+        <v>268</v>
+      </c>
       <c r="E25" s="9" t="s">
         <v>223</v>
       </c>
@@ -1784,6 +2074,9 @@
       <c r="C26" s="9" t="s">
         <v>186</v>
       </c>
+      <c r="D26" s="9" t="s">
+        <v>269</v>
+      </c>
       <c r="E26" s="9" t="s">
         <v>222</v>
       </c>
@@ -1808,6 +2101,9 @@
       <c r="C27" s="9" t="s">
         <v>176</v>
       </c>
+      <c r="D27" s="9" t="s">
+        <v>270</v>
+      </c>
       <c r="E27" s="9" t="s">
         <v>224</v>
       </c>
@@ -1832,6 +2128,9 @@
       <c r="C28" s="9" t="s">
         <v>172</v>
       </c>
+      <c r="D28" s="9" t="s">
+        <v>271</v>
+      </c>
       <c r="E28" s="9" t="s">
         <v>225</v>
       </c>
@@ -1856,6 +2155,9 @@
       <c r="C29" s="9" t="s">
         <v>200</v>
       </c>
+      <c r="D29" s="9" t="s">
+        <v>272</v>
+      </c>
       <c r="E29" s="9" t="s">
         <v>226</v>
       </c>
@@ -1880,6 +2182,9 @@
       <c r="C30" s="9" t="s">
         <v>194</v>
       </c>
+      <c r="D30" s="9" t="s">
+        <v>273</v>
+      </c>
       <c r="E30" s="9" t="s">
         <v>227</v>
       </c>
@@ -1901,6 +2206,12 @@
       <c r="B31" t="s">
         <v>112</v>
       </c>
+      <c r="C31" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>274</v>
+      </c>
       <c r="E31" s="9" t="s">
         <v>228</v>
       </c>
@@ -1925,6 +2236,9 @@
       <c r="C32" s="9" t="s">
         <v>193</v>
       </c>
+      <c r="D32" s="9" t="s">
+        <v>275</v>
+      </c>
       <c r="E32" s="9" t="s">
         <v>229</v>
       </c>
@@ -1946,6 +2260,12 @@
       <c r="B33" t="s">
         <v>114</v>
       </c>
+      <c r="C33" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>276</v>
+      </c>
       <c r="E33" s="9" t="s">
         <v>230</v>
       </c>
@@ -1970,6 +2290,9 @@
       <c r="C34" s="9" t="s">
         <v>189</v>
       </c>
+      <c r="D34" s="9" t="s">
+        <v>277</v>
+      </c>
       <c r="E34" s="9" t="s">
         <v>232</v>
       </c>
@@ -1994,6 +2317,9 @@
       <c r="C35" s="9" t="s">
         <v>154</v>
       </c>
+      <c r="D35" s="9" t="s">
+        <v>278</v>
+      </c>
       <c r="E35" s="9" t="s">
         <v>236</v>
       </c>
@@ -2018,6 +2344,9 @@
       <c r="C36" s="9" t="s">
         <v>175</v>
       </c>
+      <c r="D36" s="9" t="s">
+        <v>279</v>
+      </c>
       <c r="E36" s="9" t="s">
         <v>233</v>
       </c>
@@ -2042,6 +2371,9 @@
       <c r="C37" s="9" t="s">
         <v>191</v>
       </c>
+      <c r="D37" s="9" t="s">
+        <v>280</v>
+      </c>
       <c r="E37" s="9" t="s">
         <v>234</v>
       </c>
@@ -2063,6 +2395,12 @@
       <c r="B38" t="s">
         <v>119</v>
       </c>
+      <c r="C38" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>281</v>
+      </c>
       <c r="E38" s="9" t="s">
         <v>235</v>
       </c>
@@ -2087,6 +2425,9 @@
       <c r="C39" s="9" t="s">
         <v>198</v>
       </c>
+      <c r="D39" s="9" t="s">
+        <v>282</v>
+      </c>
       <c r="E39" s="9" t="s">
         <v>237</v>
       </c>
@@ -2111,6 +2452,9 @@
       <c r="C40" s="9" t="s">
         <v>195</v>
       </c>
+      <c r="D40" s="9" t="s">
+        <v>283</v>
+      </c>
       <c r="E40" s="9" t="s">
         <v>238</v>
       </c>
@@ -2135,6 +2479,9 @@
       <c r="C41" s="9" t="s">
         <v>184</v>
       </c>
+      <c r="D41" s="9" t="s">
+        <v>284</v>
+      </c>
       <c r="E41" s="9" t="s">
         <v>231</v>
       </c>
@@ -2159,6 +2506,9 @@
       <c r="C42" s="9" t="s">
         <v>188</v>
       </c>
+      <c r="D42" s="9" t="s">
+        <v>285</v>
+      </c>
       <c r="E42" s="9" t="s">
         <v>239</v>
       </c>
@@ -2180,6 +2530,12 @@
       <c r="B43" t="s">
         <v>123</v>
       </c>
+      <c r="C43" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>286</v>
+      </c>
       <c r="E43" s="9" t="s">
         <v>240</v>
       </c>
@@ -2204,6 +2560,9 @@
       <c r="C44" s="9" t="s">
         <v>196</v>
       </c>
+      <c r="D44" s="9" t="s">
+        <v>287</v>
+      </c>
       <c r="E44" s="9" t="s">
         <v>241</v>
       </c>
@@ -2228,6 +2587,9 @@
       <c r="C45" s="9" t="s">
         <v>190</v>
       </c>
+      <c r="D45" s="9" t="s">
+        <v>288</v>
+      </c>
       <c r="E45" s="9" t="s">
         <v>242</v>
       </c>
@@ -2249,6 +2611,12 @@
       <c r="B46" t="s">
         <v>126</v>
       </c>
+      <c r="C46" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>289</v>
+      </c>
       <c r="E46" s="9" t="s">
         <v>243</v>
       </c>
@@ -2273,6 +2641,9 @@
       <c r="C47" s="9" t="s">
         <v>183</v>
       </c>
+      <c r="D47" s="9" t="s">
+        <v>290</v>
+      </c>
       <c r="E47" s="9" t="s">
         <v>244</v>
       </c>
@@ -2297,6 +2668,9 @@
       <c r="C48" s="9" t="s">
         <v>178</v>
       </c>
+      <c r="D48" s="9" t="s">
+        <v>291</v>
+      </c>
       <c r="E48" s="9" t="s">
         <v>246</v>
       </c>
@@ -2321,6 +2695,9 @@
       <c r="C49" s="9" t="s">
         <v>192</v>
       </c>
+      <c r="D49" s="9" t="s">
+        <v>292</v>
+      </c>
       <c r="E49" s="9" t="s">
         <v>245</v>
       </c>
@@ -2333,6 +2710,58 @@
       </c>
       <c r="H49" s="7">
         <v>331100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>302</v>
+      </c>
+      <c r="B51" t="s">
+        <v>305</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="F51" s="7">
+        <v>85299476</v>
+      </c>
+      <c r="G51">
+        <v>108.9</v>
+      </c>
+      <c r="H51" s="11">
+        <v>785350</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>303</v>
+      </c>
+      <c r="B52" t="s">
+        <v>304</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="F52" s="7">
+        <v>146800000</v>
+      </c>
+      <c r="G52" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="H52" s="7">
+        <v>17100000</v>
       </c>
     </row>
   </sheetData>
@@ -2418,6 +2847,69 @@
     <hyperlink ref="E47" r:id="rId79" xr:uid="{197A92DC-8AAB-43EC-ACA4-308A0D6A5ED4}"/>
     <hyperlink ref="E49" r:id="rId80" xr:uid="{79B579F5-4D9F-4581-A21A-8422BD9DB5E1}"/>
     <hyperlink ref="E48" r:id="rId81" xr:uid="{20B7A6A6-A17B-40FC-BB72-BF32F6CE0884}"/>
+    <hyperlink ref="D4" r:id="rId82" xr:uid="{64A139A3-59DA-471D-8544-85E1E543B955}"/>
+    <hyperlink ref="D5" r:id="rId83" xr:uid="{F8C25555-DFAD-44B6-B8CA-5309DA7C5C35}"/>
+    <hyperlink ref="D6" r:id="rId84" xr:uid="{D68E4B75-61CB-4A11-9809-ED2F87325D74}"/>
+    <hyperlink ref="D7" r:id="rId85" xr:uid="{776C9E3D-B1F8-45AA-A045-0D93D2F3B531}"/>
+    <hyperlink ref="D8" r:id="rId86" xr:uid="{CE69EBB3-224B-4427-9731-F5F0E1517446}"/>
+    <hyperlink ref="D9" r:id="rId87" xr:uid="{3CAF6334-3FD6-4091-844B-B50C49A0E8B4}"/>
+    <hyperlink ref="D10" r:id="rId88" xr:uid="{ECD4C154-CD4E-49B0-BDF3-AD181A8F5D09}"/>
+    <hyperlink ref="D11" r:id="rId89" xr:uid="{06FE1794-E04C-49B5-94AB-5396BF8592B0}"/>
+    <hyperlink ref="D12" r:id="rId90" xr:uid="{2958BD9B-A9A1-49C3-99E2-1E588A6906E8}"/>
+    <hyperlink ref="D13" r:id="rId91" xr:uid="{D126B05C-84E9-4001-9779-7A0AC504FDFF}"/>
+    <hyperlink ref="D14" r:id="rId92" xr:uid="{CE5743F9-CB06-4A75-B5F7-DBECADA191C7}"/>
+    <hyperlink ref="D15" r:id="rId93" xr:uid="{CAC049BC-FABE-429C-B714-6180B1C29424}"/>
+    <hyperlink ref="D16" r:id="rId94" xr:uid="{32550905-4E96-4B38-9282-495B7EC5A94A}"/>
+    <hyperlink ref="D17" r:id="rId95" xr:uid="{4FC998A3-3243-421A-9BE8-ACA4AC0879FC}"/>
+    <hyperlink ref="D18" r:id="rId96" xr:uid="{34601833-A0E6-4535-933B-6F6EB5BD0E00}"/>
+    <hyperlink ref="D19" r:id="rId97" xr:uid="{6CF7A0DF-4C84-4D29-8E94-1F73A5634D80}"/>
+    <hyperlink ref="D20" r:id="rId98" xr:uid="{15D97661-36E4-49A2-9D51-8081AEFB2B58}"/>
+    <hyperlink ref="D21" r:id="rId99" xr:uid="{F12D2DA6-14F5-4E81-AF47-9FACBA7717C0}"/>
+    <hyperlink ref="D22" r:id="rId100" xr:uid="{9143482F-0F02-410C-92FF-22FD3FDAF876}"/>
+    <hyperlink ref="D23" r:id="rId101" xr:uid="{58FAEBC5-C0C7-4D97-B937-6B167AD35B7D}"/>
+    <hyperlink ref="D24" r:id="rId102" xr:uid="{9ED07057-A9CD-45EF-8A55-CEEAB9E90145}"/>
+    <hyperlink ref="D25" r:id="rId103" xr:uid="{BCA941D1-6B42-453E-B483-B185E90DF080}"/>
+    <hyperlink ref="D26" r:id="rId104" xr:uid="{4187F705-44D6-44A5-9D05-1D9881063905}"/>
+    <hyperlink ref="D27" r:id="rId105" xr:uid="{26146CED-C818-442D-BAF1-369D6244CB68}"/>
+    <hyperlink ref="D28" r:id="rId106" xr:uid="{82094643-1838-42EB-9CB7-0EAFCD6ED3E0}"/>
+    <hyperlink ref="D29" r:id="rId107" xr:uid="{20743072-B36A-4B06-97DB-3BB6A0891060}"/>
+    <hyperlink ref="D30" r:id="rId108" xr:uid="{4720FDF5-71C1-4AA3-A35A-E41CF8873F31}"/>
+    <hyperlink ref="D31" r:id="rId109" xr:uid="{183916B4-3460-48DF-B180-A17533AA6CAE}"/>
+    <hyperlink ref="D32" r:id="rId110" xr:uid="{B78E6954-F45A-4B86-BBB2-4EAB86F7BF0D}"/>
+    <hyperlink ref="D33" r:id="rId111" xr:uid="{CA81E725-3386-4689-A183-B4E6F71EFCE8}"/>
+    <hyperlink ref="D34" r:id="rId112" xr:uid="{3CADFED2-7019-46F5-8F4C-97434E89A8D3}"/>
+    <hyperlink ref="D35" r:id="rId113" xr:uid="{F99AC1E5-6784-4E86-9385-5549A74EA067}"/>
+    <hyperlink ref="D36" r:id="rId114" xr:uid="{037C38F0-9F63-46DE-98AA-2556310E088C}"/>
+    <hyperlink ref="D37" r:id="rId115" xr:uid="{EC78845C-E17C-4160-86EC-3CAC4033FCE5}"/>
+    <hyperlink ref="D38" r:id="rId116" xr:uid="{E3FB4DC9-2109-425E-9E0E-3448DEDEB91C}"/>
+    <hyperlink ref="D39" r:id="rId117" xr:uid="{7956B8A0-CAB3-4629-8B6E-44D8BA7F36E5}"/>
+    <hyperlink ref="D40" r:id="rId118" xr:uid="{95926DF7-FE95-4809-AC1C-05C257A4B607}"/>
+    <hyperlink ref="D41" r:id="rId119" xr:uid="{713DB2DC-1B90-407D-A195-A7CB5196D633}"/>
+    <hyperlink ref="D42" r:id="rId120" xr:uid="{F77968A0-D981-427E-910D-2D89DCF3E77A}"/>
+    <hyperlink ref="D43" r:id="rId121" xr:uid="{DB7243B2-2F47-463D-B30A-8946FD306CDE}"/>
+    <hyperlink ref="D44" r:id="rId122" xr:uid="{6F5A4587-1AC2-488D-B31A-44E32202C6EF}"/>
+    <hyperlink ref="D45" r:id="rId123" xr:uid="{C9A9C37C-9E81-490D-A1A6-FC2DFF2A11F6}"/>
+    <hyperlink ref="D46" r:id="rId124" xr:uid="{89A9F476-D9D6-4309-99F3-EAE2941ED525}"/>
+    <hyperlink ref="D47" r:id="rId125" xr:uid="{AED8F2EA-10B0-4DEF-9725-58FE13D098B4}"/>
+    <hyperlink ref="D48" r:id="rId126" xr:uid="{DD276B24-B5EE-4C3C-A41F-317587948898}"/>
+    <hyperlink ref="D49" r:id="rId127" xr:uid="{E0F0D7EB-DE60-4304-B98E-DE7E747F2443}"/>
+    <hyperlink ref="C9" r:id="rId128" xr:uid="{136B5BF9-280C-4F17-AFD7-DED01AD6CAFA}"/>
+    <hyperlink ref="C17" r:id="rId129" xr:uid="{F08051CF-0E21-4E5D-A880-5CE44FDFA2ED}"/>
+    <hyperlink ref="C19" r:id="rId130" xr:uid="{F25C42BB-8C68-4C0D-AADB-1C879D4E73FA}"/>
+    <hyperlink ref="C21" r:id="rId131" location=":~:text=%20Instructions%3A%20%201%20Cut%20the%20fish%20into,5%20Add%20the%20kale%20and%20egg.%20More%20" xr:uid="{D2EE8B88-3195-4E63-A7DD-460DC04FE803}"/>
+    <hyperlink ref="C23" r:id="rId132" xr:uid="{D6E4510C-9573-4B10-9957-06DA6D704B09}"/>
+    <hyperlink ref="C24" r:id="rId133" xr:uid="{1C279586-B69F-40B5-B55D-D9033E2F7904}"/>
+    <hyperlink ref="C31" r:id="rId134" xr:uid="{1D798368-7A7D-41F6-AFAA-38303B62B1E1}"/>
+    <hyperlink ref="C33" r:id="rId135" location=":~:text=%20Ingredients%20%201%202%20cups%20cold%20chicken,slices%2010%201%2F4%20cup%20pickled%20radish%20More%20" xr:uid="{B87C5BB0-587A-4789-A473-68E61FC9CBCE}"/>
+    <hyperlink ref="C38" r:id="rId136" xr:uid="{E48926DE-1A74-4455-B08E-7A610E497837}"/>
+    <hyperlink ref="C43" r:id="rId137" xr:uid="{6D72A45D-8C36-4A71-A970-62AD614F6ADF}"/>
+    <hyperlink ref="C46" r:id="rId138" xr:uid="{8715EE06-E9BB-415C-9EBA-C7D7AC7B359B}"/>
+    <hyperlink ref="C51" r:id="rId139" xr:uid="{DD5A580B-B83D-4830-9AE4-5F8E4F66A15B}"/>
+    <hyperlink ref="C52" r:id="rId140" xr:uid="{34D83119-618F-46D2-98BE-49A15145CABF}"/>
+    <hyperlink ref="D51" r:id="rId141" xr:uid="{332B56ED-5000-445F-9C1D-458015E3BC5B}"/>
+    <hyperlink ref="D52" r:id="rId142" xr:uid="{16057C87-B206-4DBA-83D2-A51DFF83DB1D}"/>
+    <hyperlink ref="E52" r:id="rId143" location=":~:text=%20Russia%20%E2%80%94%20Attractions%20%201%20St%20Basil%E2%80%99s,monumental%20palace%E2%80%93museum%20with%20massive%20Baroque%20frontage...%20More%20" xr:uid="{A3CA3858-CCFE-43EB-8874-8A1367B756FF}"/>
+    <hyperlink ref="E51" r:id="rId144" xr:uid="{6C42A2B4-D065-4A0B-B042-DE935794EDD3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2430,8 +2922,8 @@
   </sheetPr>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView zoomScale="113" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="113" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2739,8 +3231,14 @@
       <c r="B13" t="s">
         <v>31</v>
       </c>
+      <c r="C13" s="9" t="s">
+        <v>299</v>
+      </c>
       <c r="D13" s="9" t="s">
         <v>142</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>300</v>
       </c>
       <c r="F13" s="7">
         <v>537000</v>
@@ -2904,8 +3402,10 @@
     <hyperlink ref="E15" r:id="rId39" xr:uid="{B1C263D3-E21F-45F4-BB6B-F5D701FF24B2}"/>
     <hyperlink ref="E16" r:id="rId40" xr:uid="{69E5C9FD-AB6A-4DAF-9CED-DA75B292746B}"/>
     <hyperlink ref="E17" r:id="rId41" xr:uid="{A8E2F114-2F08-4A99-B01E-EEC59FE6A430}"/>
+    <hyperlink ref="C13" r:id="rId42" xr:uid="{73AA9170-9A14-4260-843A-E7C2FFFAD0CA}"/>
+    <hyperlink ref="E13" r:id="rId43" xr:uid="{36D43508-FF56-49C1-9144-AED42A55C081}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId42"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId44"/>
 </worksheet>
 </file>